--- a/Docs/Meilensteinanalyse.xlsx
+++ b/Docs/Meilensteinanalyse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitRepos\EscapeTheLore\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B13390B-535C-4CB3-8348-A78F23406C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FAE67A-8E39-48B3-92AB-303D968DC2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1087,52 +1087,52 @@
                   <c:v>45344</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45351</c:v>
+                  <c:v>45352</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45358</c:v>
+                  <c:v>45359</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45365</c:v>
+                  <c:v>45366</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45372</c:v>
+                  <c:v>45373</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45379</c:v>
+                  <c:v>45380</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45386</c:v>
+                  <c:v>45387</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45393</c:v>
+                  <c:v>45394</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45400</c:v>
+                  <c:v>45401</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45407</c:v>
+                  <c:v>45408</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45414</c:v>
+                  <c:v>45415</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45421</c:v>
+                  <c:v>45422</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45428</c:v>
+                  <c:v>45429</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45435</c:v>
+                  <c:v>45436</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45442</c:v>
+                  <c:v>45443</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45449</c:v>
+                  <c:v>45450</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45456</c:v>
+                  <c:v>45457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1156,6 +1156,9 @@
                   <c:v>45431</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>45438</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>45438</c:v>
                 </c:pt>
               </c:numCache>
@@ -1216,52 +1219,52 @@
                   <c:v>45344</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45351</c:v>
+                  <c:v>45352</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45358</c:v>
+                  <c:v>45359</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45365</c:v>
+                  <c:v>45366</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45372</c:v>
+                  <c:v>45373</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45379</c:v>
+                  <c:v>45380</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45386</c:v>
+                  <c:v>45387</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45393</c:v>
+                  <c:v>45394</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45400</c:v>
+                  <c:v>45401</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45407</c:v>
+                  <c:v>45408</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45414</c:v>
+                  <c:v>45415</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45421</c:v>
+                  <c:v>45422</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45428</c:v>
+                  <c:v>45429</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45435</c:v>
+                  <c:v>45436</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45442</c:v>
+                  <c:v>45443</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45449</c:v>
+                  <c:v>45450</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45456</c:v>
+                  <c:v>45457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1285,6 +1288,9 @@
                   <c:v>45357</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>45364</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>45364</c:v>
                 </c:pt>
               </c:numCache>
@@ -1345,52 +1351,52 @@
                   <c:v>45344</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45351</c:v>
+                  <c:v>45352</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45358</c:v>
+                  <c:v>45359</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45365</c:v>
+                  <c:v>45366</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45372</c:v>
+                  <c:v>45373</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45379</c:v>
+                  <c:v>45380</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45386</c:v>
+                  <c:v>45387</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45393</c:v>
+                  <c:v>45394</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45400</c:v>
+                  <c:v>45401</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45407</c:v>
+                  <c:v>45408</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45414</c:v>
+                  <c:v>45415</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45421</c:v>
+                  <c:v>45422</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45428</c:v>
+                  <c:v>45429</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45435</c:v>
+                  <c:v>45436</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45442</c:v>
+                  <c:v>45443</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45449</c:v>
+                  <c:v>45450</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45456</c:v>
+                  <c:v>45457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1414,6 +1420,9 @@
                   <c:v>45394</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>45394</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>45394</c:v>
                 </c:pt>
               </c:numCache>
@@ -1474,52 +1483,52 @@
                   <c:v>45344</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45351</c:v>
+                  <c:v>45352</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45358</c:v>
+                  <c:v>45359</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45365</c:v>
+                  <c:v>45366</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45372</c:v>
+                  <c:v>45373</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45379</c:v>
+                  <c:v>45380</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45386</c:v>
+                  <c:v>45387</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45393</c:v>
+                  <c:v>45394</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45400</c:v>
+                  <c:v>45401</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45407</c:v>
+                  <c:v>45408</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45414</c:v>
+                  <c:v>45415</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45421</c:v>
+                  <c:v>45422</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45428</c:v>
+                  <c:v>45429</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45435</c:v>
+                  <c:v>45436</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45442</c:v>
+                  <c:v>45443</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45449</c:v>
+                  <c:v>45450</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45456</c:v>
+                  <c:v>45457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1543,6 +1552,9 @@
                   <c:v>45387</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>45387</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="m/d/yyyy">
                   <c:v>45387</c:v>
                 </c:pt>
               </c:numCache>
@@ -1603,52 +1615,52 @@
                   <c:v>45344</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45351</c:v>
+                  <c:v>45352</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45358</c:v>
+                  <c:v>45359</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45365</c:v>
+                  <c:v>45366</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45372</c:v>
+                  <c:v>45373</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45379</c:v>
+                  <c:v>45380</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45386</c:v>
+                  <c:v>45387</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45393</c:v>
+                  <c:v>45394</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45400</c:v>
+                  <c:v>45401</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45407</c:v>
+                  <c:v>45408</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45414</c:v>
+                  <c:v>45415</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45421</c:v>
+                  <c:v>45422</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45428</c:v>
+                  <c:v>45429</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45435</c:v>
+                  <c:v>45436</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45442</c:v>
+                  <c:v>45443</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45449</c:v>
+                  <c:v>45450</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45456</c:v>
+                  <c:v>45457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1672,6 +1684,9 @@
                   <c:v>45434</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>45434</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>45434</c:v>
                 </c:pt>
               </c:numCache>
@@ -1732,52 +1747,52 @@
                   <c:v>45344</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45351</c:v>
+                  <c:v>45352</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45358</c:v>
+                  <c:v>45359</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45365</c:v>
+                  <c:v>45366</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45372</c:v>
+                  <c:v>45373</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45379</c:v>
+                  <c:v>45380</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45386</c:v>
+                  <c:v>45387</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45393</c:v>
+                  <c:v>45394</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45400</c:v>
+                  <c:v>45401</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45407</c:v>
+                  <c:v>45408</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45414</c:v>
+                  <c:v>45415</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45421</c:v>
+                  <c:v>45422</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45428</c:v>
+                  <c:v>45429</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45435</c:v>
+                  <c:v>45436</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45442</c:v>
+                  <c:v>45443</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45449</c:v>
+                  <c:v>45450</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45456</c:v>
+                  <c:v>45457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1801,6 +1816,9 @@
                   <c:v>45434</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>45434</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>45434</c:v>
                 </c:pt>
               </c:numCache>
@@ -1863,52 +1881,52 @@
                   <c:v>45344</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45351</c:v>
+                  <c:v>45352</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45358</c:v>
+                  <c:v>45359</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45365</c:v>
+                  <c:v>45366</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45372</c:v>
+                  <c:v>45373</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45379</c:v>
+                  <c:v>45380</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45386</c:v>
+                  <c:v>45387</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45393</c:v>
+                  <c:v>45394</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45400</c:v>
+                  <c:v>45401</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45407</c:v>
+                  <c:v>45408</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45414</c:v>
+                  <c:v>45415</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45421</c:v>
+                  <c:v>45422</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45428</c:v>
+                  <c:v>45429</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45435</c:v>
+                  <c:v>45436</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45442</c:v>
+                  <c:v>45443</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45449</c:v>
+                  <c:v>45450</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45456</c:v>
+                  <c:v>45457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1932,6 +1950,9 @@
                   <c:v>45455</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>45455</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>45455</c:v>
                 </c:pt>
               </c:numCache>
@@ -3439,8 +3460,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="B1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3470,68 +3491,68 @@
         <v>45344</v>
       </c>
       <c r="H2" s="2">
-        <f t="shared" si="0"/>
-        <v>45351</v>
+        <f>G2+8</f>
+        <v>45352</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" si="0"/>
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" si="0"/>
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" si="0"/>
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="L2" s="2">
         <f t="shared" si="0"/>
-        <v>45379</v>
+        <v>45380</v>
       </c>
       <c r="M2" s="2">
         <f t="shared" si="0"/>
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="N2" s="2">
         <f t="shared" si="0"/>
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="O2" s="2">
         <f t="shared" si="0"/>
-        <v>45400</v>
+        <v>45401</v>
       </c>
       <c r="P2" s="2">
         <f t="shared" si="0"/>
-        <v>45407</v>
+        <v>45408</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" si="0"/>
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="R2" s="2">
         <f t="shared" si="0"/>
-        <v>45421</v>
+        <v>45422</v>
       </c>
       <c r="S2" s="2">
         <f t="shared" si="0"/>
-        <v>45428</v>
+        <v>45429</v>
       </c>
       <c r="T2" s="2">
         <f t="shared" si="0"/>
-        <v>45435</v>
+        <v>45436</v>
       </c>
       <c r="U2" s="2">
         <f t="shared" si="0"/>
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="V2" s="2">
         <f t="shared" si="0"/>
-        <v>45449</v>
+        <v>45450</v>
       </c>
       <c r="W2" s="2">
         <f t="shared" si="0"/>
-        <v>45456</v>
+        <v>45457</v>
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.55000000000000004">
@@ -3564,7 +3585,9 @@
       <c r="H4" s="2">
         <v>45438</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2">
+        <v>45438</v>
+      </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
@@ -3588,7 +3611,9 @@
       <c r="H5" s="2">
         <v>45364</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2">
+        <v>45364</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -3615,7 +3640,9 @@
       <c r="H6" s="2">
         <v>45394</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2">
+        <v>45394</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -3647,6 +3674,9 @@
       <c r="H7" s="11">
         <v>45387</v>
       </c>
+      <c r="I7" s="2">
+        <v>45387</v>
+      </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
@@ -3670,6 +3700,9 @@
       <c r="H8" s="2">
         <v>45434</v>
       </c>
+      <c r="I8" s="2">
+        <v>45434</v>
+      </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
@@ -3693,6 +3726,9 @@
       <c r="H9" s="2">
         <v>45434</v>
       </c>
+      <c r="I9" s="2">
+        <v>45434</v>
+      </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
@@ -3714,6 +3750,9 @@
         <v>45455</v>
       </c>
       <c r="H10" s="2">
+        <v>45455</v>
+      </c>
+      <c r="I10" s="2">
         <v>45455</v>
       </c>
     </row>
@@ -3737,15 +3776,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001A56A123154F954888BA0DA91FFC860A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a31623f2d3d3032c135966b26d881fac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c8b2f909-83aa-43b7-ab4a-271920d90ab4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="95fe4a711780fb893260df3d29c0b58e" ns2:_="">
     <xsd:import namespace="c8b2f909-83aa-43b7-ab4a-271920d90ab4"/>
@@ -3889,15 +3919,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C8361E1-AF95-49A2-AC08-F608DBFAFA1B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1E00D2A-E078-4642-BA8C-34A1A01C2EC2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3913,4 +3944,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C8361E1-AF95-49A2-AC08-F608DBFAFA1B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>